--- a/vm_access.xlsx
+++ b/vm_access.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jruels/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\labs\gh-auto-infra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F141A4-2E7D-EE49-9889-8C7A960C28AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C190761-BC48-4C0E-920A-4A4CF40AB91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="1060" windowWidth="35360" windowHeight="18160" xr2:uid="{17AF21C6-E61B-994C-83EC-C5D121A671AF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{17AF21C6-E61B-994C-83EC-C5D121A671AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="82">
   <si>
     <t>Virtual Machine Password</t>
   </si>
@@ -280,6 +278,9 @@
   </si>
   <si>
     <t>TEKwns2022!</t>
+  </si>
+  <si>
+    <t>Instructor</t>
   </si>
 </sst>
 </file>
@@ -724,19 +725,19 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" customWidth="1"/>
-    <col min="4" max="4" width="38.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.625" customWidth="1"/>
+    <col min="4" max="4" width="38.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -754,7 +755,7 @@
       <c r="N1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="27" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>51</v>
       </c>
@@ -769,7 +770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>52</v>
       </c>
@@ -778,7 +779,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
         <v>64</v>
       </c>
@@ -787,7 +788,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
         <v>53</v>
       </c>
@@ -796,7 +797,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
         <v>54</v>
       </c>
@@ -805,7 +806,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
         <v>55</v>
       </c>
@@ -814,7 +815,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
         <v>56</v>
       </c>
@@ -823,7 +824,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
         <v>57</v>
       </c>
@@ -832,7 +833,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
         <v>58</v>
       </c>
@@ -841,7 +842,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
         <v>59</v>
       </c>
@@ -850,7 +851,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
         <v>60</v>
       </c>
@@ -859,7 +860,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
         <v>61</v>
       </c>
@@ -868,7 +869,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
         <v>62</v>
       </c>
@@ -877,7 +878,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
         <v>63</v>
       </c>
@@ -886,33 +887,36 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A16" s="7" t="s">
+        <v>81</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="3:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="C17" s="2"/>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="3:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="C18" s="2"/>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="3:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="C19" s="2"/>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="3:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="C20" s="2"/>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="3:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="C21" s="2"/>
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="3:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="D22" s="7"/>
     </row>
   </sheetData>
@@ -933,16 +937,16 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -965,7 +969,7 @@
       </c>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -986,7 +990,7 @@
       </c>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>31</v>
       </c>
@@ -1007,7 +1011,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>32</v>
       </c>
@@ -1028,7 +1032,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>33</v>
       </c>
@@ -1049,7 +1053,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>34</v>
       </c>
@@ -1070,7 +1074,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>35</v>
       </c>
@@ -1091,7 +1095,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>36</v>
       </c>
@@ -1112,7 +1116,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>37</v>
       </c>
@@ -1133,7 +1137,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>38</v>
       </c>
@@ -1154,7 +1158,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>39</v>
       </c>
@@ -1175,7 +1179,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>40</v>
       </c>
@@ -1196,7 +1200,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>41</v>
       </c>
@@ -1217,7 +1221,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>42</v>
       </c>
@@ -1238,7 +1242,7 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>43</v>
       </c>
@@ -1259,7 +1263,7 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>44</v>
       </c>
@@ -1280,7 +1284,7 @@
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>45</v>
       </c>
@@ -1301,7 +1305,7 @@
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
     </row>
-    <row r="18" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>46</v>
       </c>
@@ -1322,7 +1326,7 @@
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
     </row>
-    <row r="19" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>47</v>
       </c>
@@ -1343,7 +1347,7 @@
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
     </row>
-    <row r="20" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>48</v>
       </c>
@@ -1364,7 +1368,7 @@
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
-    <row r="21" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>49</v>
       </c>
@@ -1385,7 +1389,7 @@
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
-    <row r="22" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>50</v>
       </c>
